--- a/output/StructureDefinition-c-intersex.xlsx
+++ b/output/StructureDefinition-c-intersex.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T11:27:05+01:00</t>
+    <t>2023-03-23T14:41:29+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-c-intersex.xlsx
+++ b/output/StructureDefinition-c-intersex.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T14:41:29+01:00</t>
+    <t>2023-03-27T14:34:38+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4821,7 +4821,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>92</v>
@@ -6273,7 +6273,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>92</v>
@@ -7725,7 +7725,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>92</v>

--- a/output/StructureDefinition-c-intersex.xlsx
+++ b/output/StructureDefinition-c-intersex.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-27T14:34:38+02:00</t>
+    <t>2023-03-28T14:13:32+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-c-intersex.xlsx
+++ b/output/StructureDefinition-c-intersex.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T14:13:32+02:00</t>
+    <t>2023-03-28T16:37:13+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-c-intersex.xlsx
+++ b/output/StructureDefinition-c-intersex.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$111</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3388" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4312" uniqueCount="595">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T16:37:13+02:00</t>
+    <t>2023-03-28T22:15:03+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -632,7 +632,7 @@
     <t>Observation.category</t>
   </si>
   <si>
-    <t>3</t>
+    <t>5</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
@@ -676,13 +676,13 @@
     <t>FiveWs.class</t>
   </si>
   <si>
-    <t>Observation.category:Gender</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Observation.category:Gender.id</t>
+    <t>Observation.category:Gender_UMLS</t>
+  </si>
+  <si>
+    <t>Gender_UMLS</t>
+  </si>
+  <si>
+    <t>Observation.category:Gender_UMLS.id</t>
   </si>
   <si>
     <t>Observation.category.id</t>
@@ -701,7 +701,7 @@
     <t>Element.id</t>
   </si>
   <si>
-    <t>Observation.category:Gender.extension</t>
+    <t>Observation.category:Gender_UMLS.extension</t>
   </si>
   <si>
     <t>Observation.category.extension</t>
@@ -713,7 +713,7 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>Observation.category:Gender.coding</t>
+    <t>Observation.category:Gender_UMLS.coding</t>
   </si>
   <si>
     <t>Observation.category.coding</t>
@@ -744,19 +744,19 @@
     <t>union(., ./translation)</t>
   </si>
   <si>
-    <t>Observation.category:Gender.coding.id</t>
+    <t>Observation.category:Gender_UMLS.coding.id</t>
   </si>
   <si>
     <t>Observation.category.coding.id</t>
   </si>
   <si>
-    <t>Observation.category:Gender.coding.extension</t>
+    <t>Observation.category:Gender_UMLS.coding.extension</t>
   </si>
   <si>
     <t>Observation.category.coding.extension</t>
   </si>
   <si>
-    <t>Observation.category:Gender.coding.system</t>
+    <t>Observation.category:Gender_UMLS.coding.system</t>
   </si>
   <si>
     <t>Observation.category.coding.system</t>
@@ -774,7 +774,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://snomed.info/sct</t>
+    <t>http://terminology.hl7.org/CodeSystem/umls</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -786,7 +786,7 @@
     <t>./codeSystem</t>
   </si>
   <si>
-    <t>Observation.category:Gender.coding.version</t>
+    <t>Observation.category:Gender_UMLS.coding.version</t>
   </si>
   <si>
     <t>Observation.category.coding.version</t>
@@ -810,7 +810,7 @@
     <t>./codeSystemVersion</t>
   </si>
   <si>
-    <t>Observation.category:Gender.coding.code</t>
+    <t>Observation.category:Gender_UMLS.coding.code</t>
   </si>
   <si>
     <t>Observation.category.coding.code</t>
@@ -828,7 +828,7 @@
     <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
-    <t>263495000</t>
+    <t>C0079399</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -840,7 +840,7 @@
     <t>./code</t>
   </si>
   <si>
-    <t>Observation.category:Gender.coding.display</t>
+    <t>Observation.category:Gender_UMLS.coding.display</t>
   </si>
   <si>
     <t>Observation.category.coding.display</t>
@@ -864,7 +864,7 @@
     <t>CV.displayName</t>
   </si>
   <si>
-    <t>Observation.category:Gender.coding.userSelected</t>
+    <t>Observation.category:Gender_UMLS.coding.userSelected</t>
   </si>
   <si>
     <t>Observation.category.coding.userSelected</t>
@@ -895,7 +895,7 @@
     <t>CD.codingRationale</t>
   </si>
   <si>
-    <t>Observation.category:Gender.text</t>
+    <t>Observation.category:Gender_UMLS.text</t>
   </si>
   <si>
     <t>Observation.category.text</t>
@@ -922,46 +922,133 @@
     <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
-    <t>Observation.category:BiologicalSex</t>
-  </si>
-  <si>
-    <t>BiologicalSex</t>
-  </si>
-  <si>
-    <t>Observation.category:BiologicalSex.id</t>
-  </si>
-  <si>
-    <t>Observation.category:BiologicalSex.extension</t>
-  </si>
-  <si>
-    <t>Observation.category:BiologicalSex.coding</t>
-  </si>
-  <si>
-    <t>Observation.category:BiologicalSex.coding.id</t>
-  </si>
-  <si>
-    <t>Observation.category:BiologicalSex.coding.extension</t>
-  </si>
-  <si>
-    <t>Observation.category:BiologicalSex.coding.system</t>
-  </si>
-  <si>
-    <t>Observation.category:BiologicalSex.coding.version</t>
-  </si>
-  <si>
-    <t>Observation.category:BiologicalSex.coding.code</t>
+    <t>Observation.category:Gender_SNOMED</t>
+  </si>
+  <si>
+    <t>Gender_SNOMED</t>
+  </si>
+  <si>
+    <t>Observation.category:Gender_SNOMED.id</t>
+  </si>
+  <si>
+    <t>Observation.category:Gender_SNOMED.extension</t>
+  </si>
+  <si>
+    <t>Observation.category:Gender_SNOMED.coding</t>
+  </si>
+  <si>
+    <t>Observation.category:Gender_SNOMED.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.category:Gender_SNOMED.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.category:Gender_SNOMED.coding.system</t>
+  </si>
+  <si>
+    <t>http://snomed.info/sct</t>
+  </si>
+  <si>
+    <t>Observation.category:Gender_SNOMED.coding.version</t>
+  </si>
+  <si>
+    <t>Observation.category:Gender_SNOMED.coding.code</t>
+  </si>
+  <si>
+    <t>263495000</t>
+  </si>
+  <si>
+    <t>Observation.category:Gender_SNOMED.coding.display</t>
+  </si>
+  <si>
+    <t>Observation.category:Gender_SNOMED.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.category:Gender_SNOMED.text</t>
+  </si>
+  <si>
+    <t>Observation.category:BiologicalSex_UMLS</t>
+  </si>
+  <si>
+    <t>BiologicalSex_UMLS</t>
+  </si>
+  <si>
+    <t>Observation.category:BiologicalSex_UMLS.id</t>
+  </si>
+  <si>
+    <t>Observation.category:BiologicalSex_UMLS.extension</t>
+  </si>
+  <si>
+    <t>Observation.category:BiologicalSex_UMLS.coding</t>
+  </si>
+  <si>
+    <t>Observation.category:BiologicalSex_UMLS.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.category:BiologicalSex_UMLS.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.category:BiologicalSex_UMLS.coding.system</t>
+  </si>
+  <si>
+    <t>Observation.category:BiologicalSex_UMLS.coding.version</t>
+  </si>
+  <si>
+    <t>Observation.category:BiologicalSex_UMLS.coding.code</t>
+  </si>
+  <si>
+    <t>C1522384</t>
+  </si>
+  <si>
+    <t>Observation.category:BiologicalSex_UMLS.coding.display</t>
+  </si>
+  <si>
+    <t>Observation.category:BiologicalSex_UMLS.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.category:BiologicalSex_UMLS.text</t>
+  </si>
+  <si>
+    <t>Observation.category:BiologicalSex_SNOMED</t>
+  </si>
+  <si>
+    <t>BiologicalSex_SNOMED</t>
+  </si>
+  <si>
+    <t>Observation.category:BiologicalSex_SNOMED.id</t>
+  </si>
+  <si>
+    <t>Observation.category:BiologicalSex_SNOMED.extension</t>
+  </si>
+  <si>
+    <t>Observation.category:BiologicalSex_SNOMED.coding</t>
+  </si>
+  <si>
+    <t>Observation.category:BiologicalSex_SNOMED.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.category:BiologicalSex_SNOMED.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.category:BiologicalSex_SNOMED.coding.system</t>
+  </si>
+  <si>
+    <t>Observation.category:BiologicalSex_SNOMED.coding.version</t>
+  </si>
+  <si>
+    <t>Observation.category:BiologicalSex_SNOMED.coding.code</t>
   </si>
   <si>
     <t>734000001</t>
   </si>
   <si>
-    <t>Observation.category:BiologicalSex.coding.display</t>
-  </si>
-  <si>
-    <t>Observation.category:BiologicalSex.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Observation.category:BiologicalSex.text</t>
+    <t>Observation.category:BiologicalSex_SNOMED.coding.display</t>
+  </si>
+  <si>
+    <t>Observation.category:BiologicalSex_SNOMED.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.category:BiologicalSex_SNOMED.text</t>
   </si>
   <si>
     <t>Observation.category:Intersex</t>
@@ -2098,7 +2185,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP87"/>
+  <dimension ref="A1:AP111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2107,9 +2194,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="51.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="60.35546875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="43.60546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.65234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="21.9453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -6185,7 +6272,7 @@
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>243</v>
+        <v>300</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>82</v>
@@ -6262,7 +6349,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>248</v>
@@ -6382,7 +6469,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>256</v>
@@ -6427,7 +6514,7 @@
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>82</v>
@@ -6504,7 +6591,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>266</v>
@@ -6626,7 +6713,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>274</v>
@@ -6748,7 +6835,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>284</v>
@@ -6870,13 +6957,13 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>82</v>
@@ -6994,7 +7081,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>214</v>
@@ -7112,7 +7199,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>220</v>
@@ -7232,7 +7319,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>224</v>
@@ -7354,7 +7441,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>234</v>
@@ -7472,7 +7559,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>236</v>
@@ -7592,7 +7679,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>238</v>
@@ -7714,7 +7801,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>248</v>
@@ -7834,7 +7921,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>256</v>
@@ -7879,7 +7966,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>82</v>
@@ -7956,7 +8043,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>266</v>
@@ -8078,7 +8165,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>274</v>
@@ -8200,7 +8287,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>284</v>
@@ -8322,14 +8409,16 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="C52" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="D52" t="s" s="2">
-        <v>321</v>
+        <v>82</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8339,28 +8428,28 @@
         <v>92</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>198</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>322</v>
+        <v>199</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>323</v>
+        <v>200</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>324</v>
+        <v>201</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>325</v>
+        <v>202</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8385,13 +8474,13 @@
         <v>82</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>326</v>
+        <v>119</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>327</v>
+        <v>203</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>328</v>
+        <v>204</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
@@ -8409,13 +8498,13 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>320</v>
+        <v>196</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>104</v>
@@ -8424,30 +8513,30 @@
         <v>105</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>329</v>
+        <v>82</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>330</v>
+        <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>331</v>
+        <v>208</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>332</v>
+        <v>209</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>333</v>
+        <v>210</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>334</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>335</v>
+        <v>214</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8467,23 +8556,19 @@
         <v>82</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>336</v>
+        <v>215</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>337</v>
+        <v>216</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>340</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>82</v>
       </c>
@@ -8531,7 +8616,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>335</v>
+        <v>218</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8540,25 +8625,25 @@
         <v>92</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>170</v>
+        <v>82</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>341</v>
+        <v>82</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>342</v>
+        <v>82</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>343</v>
+        <v>113</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>344</v>
+        <v>82</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>82</v>
@@ -8566,14 +8651,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>345</v>
+        <v>220</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8589,19 +8674,19 @@
         <v>82</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>346</v>
+        <v>140</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>347</v>
+        <v>141</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>348</v>
+        <v>221</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>349</v>
+        <v>143</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8639,19 +8724,19 @@
         <v>82</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>345</v>
+        <v>222</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8663,7 +8748,7 @@
         <v>104</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>82</v>
@@ -8672,13 +8757,13 @@
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>331</v>
+        <v>82</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>350</v>
+        <v>106</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>344</v>
+        <v>82</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>82</v>
@@ -8686,21 +8771,21 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>351</v>
+        <v>224</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>352</v>
+        <v>82</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>82</v>
@@ -8712,19 +8797,19 @@
         <v>93</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>353</v>
+        <v>225</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>354</v>
+        <v>226</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>355</v>
+        <v>227</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>356</v>
+        <v>228</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>357</v>
+        <v>229</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>82</v>
@@ -8773,34 +8858,34 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>351</v>
+        <v>230</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>358</v>
+        <v>82</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>359</v>
+        <v>231</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>360</v>
+        <v>232</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>361</v>
+        <v>82</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>82</v>
@@ -8808,14 +8893,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>362</v>
+        <v>326</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>362</v>
+        <v>234</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>363</v>
+        <v>82</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8831,23 +8916,19 @@
         <v>82</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>364</v>
+        <v>215</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>365</v>
+        <v>216</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>368</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>82</v>
       </c>
@@ -8895,7 +8976,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>362</v>
+        <v>218</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8904,25 +8985,25 @@
         <v>92</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>369</v>
+        <v>82</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>370</v>
+        <v>82</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>371</v>
+        <v>113</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>372</v>
+        <v>82</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>82</v>
@@ -8930,21 +9011,21 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>373</v>
+        <v>327</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>373</v>
+        <v>236</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>82</v>
@@ -8953,19 +9034,19 @@
         <v>82</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>374</v>
+        <v>140</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>375</v>
+        <v>141</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>376</v>
+        <v>221</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>377</v>
+        <v>143</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -9003,31 +9084,31 @@
         <v>82</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>373</v>
+        <v>222</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>82</v>
@@ -9036,13 +9117,13 @@
         <v>82</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>378</v>
+        <v>82</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>379</v>
+        <v>106</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>380</v>
+        <v>82</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>82</v>
@@ -9050,10 +9131,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>381</v>
+        <v>328</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>381</v>
+        <v>238</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9061,10 +9142,10 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>82</v>
@@ -9076,26 +9157,26 @@
         <v>93</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>382</v>
+        <v>108</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>383</v>
+        <v>239</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>384</v>
+        <v>240</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>168</v>
+        <v>241</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>385</v>
+        <v>242</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>82</v>
+        <v>300</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>82</v>
@@ -9137,34 +9218,34 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>381</v>
+        <v>244</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>386</v>
+        <v>82</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>387</v>
+        <v>245</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>388</v>
+        <v>246</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>389</v>
+        <v>82</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>82</v>
@@ -9172,10 +9253,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>390</v>
+        <v>329</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>390</v>
+        <v>248</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9198,20 +9279,18 @@
         <v>93</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>391</v>
+        <v>215</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>392</v>
+        <v>249</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>393</v>
+        <v>250</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>395</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>82</v>
       </c>
@@ -9259,7 +9338,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>390</v>
+        <v>252</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9268,7 +9347,7 @@
         <v>92</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>396</v>
+        <v>104</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>105</v>
@@ -9277,27 +9356,27 @@
         <v>82</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>397</v>
+        <v>82</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>398</v>
+        <v>253</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>399</v>
+        <v>254</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>400</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>401</v>
+        <v>330</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>401</v>
+        <v>256</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9305,7 +9384,7 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>92</v>
@@ -9317,29 +9396,29 @@
         <v>82</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>198</v>
+        <v>115</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>402</v>
+        <v>257</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>403</v>
+        <v>258</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>404</v>
+        <v>259</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>405</v>
+        <v>260</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" t="s" s="2">
-        <v>82</v>
+        <v>331</v>
       </c>
       <c r="S60" t="s" s="2">
         <v>82</v>
@@ -9357,13 +9436,13 @@
         <v>82</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>406</v>
+        <v>82</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>407</v>
+        <v>82</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>408</v>
+        <v>82</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>82</v>
@@ -9381,7 +9460,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>401</v>
+        <v>262</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9390,7 +9469,7 @@
         <v>92</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>409</v>
+        <v>104</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>105</v>
@@ -9402,10 +9481,10 @@
         <v>82</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>106</v>
+        <v>263</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>410</v>
+        <v>264</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
@@ -9416,21 +9495,21 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>411</v>
+        <v>332</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>411</v>
+        <v>266</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>412</v>
+        <v>82</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>82</v>
@@ -9439,22 +9518,22 @@
         <v>82</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>413</v>
+        <v>267</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>414</v>
+        <v>268</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>415</v>
+        <v>259</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>416</v>
+        <v>269</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9479,13 +9558,13 @@
         <v>82</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>406</v>
+        <v>82</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>417</v>
+        <v>82</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>418</v>
+        <v>82</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>82</v>
@@ -9503,13 +9582,13 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>411</v>
+        <v>270</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>104</v>
@@ -9521,27 +9600,27 @@
         <v>82</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>419</v>
+        <v>82</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>420</v>
+        <v>271</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>421</v>
+        <v>272</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>422</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>423</v>
+        <v>333</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>423</v>
+        <v>274</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9552,7 +9631,7 @@
         <v>80</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>82</v>
@@ -9561,22 +9640,22 @@
         <v>82</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>424</v>
+        <v>275</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>425</v>
+        <v>276</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>426</v>
+        <v>277</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>427</v>
+        <v>278</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>428</v>
+        <v>279</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9625,13 +9704,13 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>423</v>
+        <v>280</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>104</v>
@@ -9646,10 +9725,10 @@
         <v>82</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>429</v>
+        <v>281</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>430</v>
+        <v>282</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -9660,10 +9739,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>431</v>
+        <v>334</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>431</v>
+        <v>284</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9683,21 +9762,23 @@
         <v>82</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>432</v>
+        <v>285</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>433</v>
+        <v>286</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="O63" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
       </c>
@@ -9721,13 +9802,13 @@
         <v>82</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>326</v>
+        <v>82</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>435</v>
+        <v>82</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>436</v>
+        <v>82</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>82</v>
@@ -9745,7 +9826,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>431</v>
+        <v>289</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9763,41 +9844,43 @@
         <v>82</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>437</v>
+        <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>438</v>
+        <v>290</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>439</v>
+        <v>291</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP63" t="s" s="2">
-        <v>440</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>441</v>
+        <v>335</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="C64" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="D64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>82</v>
@@ -9809,16 +9892,16 @@
         <v>198</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>442</v>
+        <v>199</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>443</v>
+        <v>200</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>444</v>
+        <v>201</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>445</v>
+        <v>202</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>82</v>
@@ -9843,13 +9926,13 @@
         <v>82</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>326</v>
+        <v>119</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>446</v>
+        <v>203</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>447</v>
+        <v>204</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>82</v>
@@ -9867,13 +9950,13 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>441</v>
+        <v>196</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>104</v>
@@ -9888,13 +9971,13 @@
         <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>448</v>
+        <v>208</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>449</v>
+        <v>209</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>82</v>
+        <v>210</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>82</v>
@@ -9902,10 +9985,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>450</v>
+        <v>337</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>450</v>
+        <v>214</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9928,17 +10011,15 @@
         <v>82</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>451</v>
+        <v>215</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>452</v>
+        <v>216</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>454</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>82</v>
@@ -9987,7 +10068,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>450</v>
+        <v>218</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9996,47 +10077,47 @@
         <v>92</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>170</v>
+        <v>82</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>455</v>
+        <v>82</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>456</v>
+        <v>82</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>457</v>
+        <v>113</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP65" t="s" s="2">
-        <v>458</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>459</v>
+        <v>338</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>459</v>
+        <v>220</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>82</v>
@@ -10048,16 +10129,16 @@
         <v>82</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>460</v>
+        <v>140</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>461</v>
+        <v>141</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>462</v>
+        <v>221</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>463</v>
+        <v>143</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -10095,57 +10176,57 @@
         <v>82</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC66" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD66" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>459</v>
+        <v>222</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>464</v>
+        <v>82</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>465</v>
+        <v>82</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>466</v>
+        <v>106</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP66" t="s" s="2">
-        <v>467</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>468</v>
+        <v>339</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>468</v>
+        <v>224</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10153,7 +10234,7 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>81</v>
@@ -10165,22 +10246,22 @@
         <v>82</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>469</v>
+        <v>225</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>470</v>
+        <v>226</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>471</v>
+        <v>227</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>472</v>
+        <v>228</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>473</v>
+        <v>229</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>82</v>
@@ -10229,7 +10310,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>468</v>
+        <v>230</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10241,7 +10322,7 @@
         <v>104</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>474</v>
+        <v>105</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>82</v>
@@ -10250,10 +10331,10 @@
         <v>82</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>475</v>
+        <v>231</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>476</v>
+        <v>232</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>82</v>
@@ -10264,10 +10345,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>477</v>
+        <v>340</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>477</v>
+        <v>234</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10382,10 +10463,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>478</v>
+        <v>341</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>478</v>
+        <v>236</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10502,52 +10583,52 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>479</v>
+        <v>342</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>479</v>
+        <v>238</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>480</v>
+        <v>82</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J70" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>481</v>
+        <v>239</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>482</v>
+        <v>240</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>143</v>
+        <v>241</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>152</v>
+        <v>242</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" t="s" s="2">
-        <v>82</v>
+        <v>300</v>
       </c>
       <c r="S70" t="s" s="2">
         <v>82</v>
@@ -10589,19 +10670,19 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>483</v>
+        <v>244</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>82</v>
@@ -10610,10 +10691,10 @@
         <v>82</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>82</v>
+        <v>245</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>106</v>
+        <v>246</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
@@ -10624,10 +10705,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>484</v>
+        <v>343</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>484</v>
+        <v>248</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10647,19 +10728,19 @@
         <v>82</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>485</v>
+        <v>215</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>486</v>
+        <v>249</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>487</v>
+        <v>250</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>488</v>
+        <v>251</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10709,7 +10790,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>484</v>
+        <v>252</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10718,10 +10799,10 @@
         <v>92</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>489</v>
+        <v>104</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>490</v>
+        <v>105</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>82</v>
@@ -10730,10 +10811,10 @@
         <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>491</v>
+        <v>253</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>492</v>
+        <v>254</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
@@ -10744,10 +10825,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>493</v>
+        <v>344</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>493</v>
+        <v>256</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10755,7 +10836,7 @@
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>92</v>
@@ -10767,27 +10848,29 @@
         <v>82</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>485</v>
+        <v>115</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>494</v>
+        <v>257</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>495</v>
+        <v>258</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="O72" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q72" s="2"/>
       <c r="R72" t="s" s="2">
-        <v>82</v>
+        <v>345</v>
       </c>
       <c r="S72" t="s" s="2">
         <v>82</v>
@@ -10829,7 +10912,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>493</v>
+        <v>262</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10838,10 +10921,10 @@
         <v>92</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>489</v>
+        <v>104</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>490</v>
+        <v>105</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>82</v>
@@ -10850,10 +10933,10 @@
         <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>491</v>
+        <v>263</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>496</v>
+        <v>264</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
@@ -10864,10 +10947,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>497</v>
+        <v>346</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>497</v>
+        <v>266</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10887,22 +10970,22 @@
         <v>82</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>498</v>
+        <v>267</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>499</v>
+        <v>268</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>500</v>
+        <v>259</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>501</v>
+        <v>269</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -10927,13 +11010,13 @@
         <v>82</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>502</v>
+        <v>82</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>503</v>
+        <v>82</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>82</v>
@@ -10951,7 +11034,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>497</v>
+        <v>270</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -10969,13 +11052,13 @@
         <v>82</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>504</v>
+        <v>82</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>505</v>
+        <v>271</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>421</v>
+        <v>272</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
@@ -10986,10 +11069,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>506</v>
+        <v>347</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>506</v>
+        <v>274</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11000,7 +11083,7 @@
         <v>80</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>82</v>
@@ -11009,22 +11092,22 @@
         <v>82</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>198</v>
+        <v>275</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>507</v>
+        <v>276</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>508</v>
+        <v>277</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>509</v>
+        <v>278</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>510</v>
+        <v>279</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>82</v>
@@ -11049,13 +11132,13 @@
         <v>82</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>326</v>
+        <v>82</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>511</v>
+        <v>82</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>512</v>
+        <v>82</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>82</v>
@@ -11073,13 +11156,13 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>506</v>
+        <v>280</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>104</v>
@@ -11091,13 +11174,13 @@
         <v>82</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>504</v>
+        <v>82</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>505</v>
+        <v>281</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>421</v>
+        <v>282</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
@@ -11108,10 +11191,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>513</v>
+        <v>348</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>513</v>
+        <v>284</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11131,22 +11214,22 @@
         <v>82</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>514</v>
+        <v>215</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>515</v>
+        <v>285</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>516</v>
+        <v>286</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>517</v>
+        <v>287</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>518</v>
+        <v>288</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>82</v>
@@ -11195,7 +11278,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>513</v>
+        <v>289</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11207,7 +11290,7 @@
         <v>104</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>519</v>
+        <v>105</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>82</v>
@@ -11216,10 +11299,10 @@
         <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>520</v>
+        <v>290</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>521</v>
+        <v>291</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>82</v>
@@ -11230,18 +11313,18 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>522</v>
+        <v>349</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>522</v>
+        <v>349</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>82</v>
+        <v>350</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>92</v>
@@ -11253,21 +11336,23 @@
         <v>82</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>523</v>
+        <v>351</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>524</v>
+        <v>352</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O76" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="P76" t="s" s="2">
         <v>82</v>
       </c>
@@ -11291,13 +11376,13 @@
         <v>82</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>82</v>
+        <v>355</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>82</v>
+        <v>356</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>82</v>
+        <v>357</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>82</v>
@@ -11315,10 +11400,10 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>522</v>
+        <v>349</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>92</v>
@@ -11330,30 +11415,30 @@
         <v>105</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>82</v>
+        <v>358</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>82</v>
+        <v>359</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>491</v>
+        <v>360</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>525</v>
+        <v>361</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>82</v>
+        <v>362</v>
       </c>
       <c r="AP76" t="s" s="2">
-        <v>82</v>
+        <v>363</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>526</v>
+        <v>364</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>526</v>
+        <v>364</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11364,7 +11449,7 @@
         <v>80</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>82</v>
@@ -11376,18 +11461,20 @@
         <v>93</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>527</v>
+        <v>365</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>528</v>
+        <v>366</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>529</v>
+        <v>367</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="O77" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="P77" t="s" s="2">
         <v>82</v>
       </c>
@@ -11435,13 +11522,13 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>526</v>
+        <v>364</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>104</v>
@@ -11450,19 +11537,19 @@
         <v>170</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>82</v>
+        <v>370</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>531</v>
+        <v>371</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>532</v>
+        <v>372</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>82</v>
+        <v>373</v>
       </c>
       <c r="AP77" t="s" s="2">
         <v>82</v>
@@ -11470,10 +11557,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>533</v>
+        <v>374</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>533</v>
+        <v>374</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11496,16 +11583,16 @@
         <v>93</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>534</v>
+        <v>375</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>535</v>
+        <v>376</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>536</v>
+        <v>377</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>537</v>
+        <v>378</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11555,7 +11642,7 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>533</v>
+        <v>374</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11576,13 +11663,13 @@
         <v>82</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>531</v>
+        <v>360</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>538</v>
+        <v>379</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>82</v>
+        <v>373</v>
       </c>
       <c r="AP78" t="s" s="2">
         <v>82</v>
@@ -11590,21 +11677,21 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>539</v>
+        <v>380</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>539</v>
+        <v>380</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>82</v>
+        <v>381</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>82</v>
@@ -11616,19 +11703,19 @@
         <v>93</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>469</v>
+        <v>382</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>540</v>
+        <v>383</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>541</v>
+        <v>384</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>542</v>
+        <v>385</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>543</v>
+        <v>386</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
@@ -11677,34 +11764,34 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>539</v>
+        <v>380</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>82</v>
+        <v>387</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>544</v>
+        <v>388</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>545</v>
+        <v>389</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>82</v>
+        <v>390</v>
       </c>
       <c r="AP79" t="s" s="2">
         <v>82</v>
@@ -11712,14 +11799,14 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>546</v>
+        <v>391</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>546</v>
+        <v>391</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>82</v>
+        <v>392</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -11735,19 +11822,23 @@
         <v>82</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>215</v>
+        <v>393</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>216</v>
+        <v>394</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="P80" t="s" s="2">
         <v>82</v>
       </c>
@@ -11795,7 +11886,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>218</v>
+        <v>391</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -11804,25 +11895,25 @@
         <v>92</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>82</v>
+        <v>398</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>82</v>
+        <v>399</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>113</v>
+        <v>400</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>82</v>
+        <v>401</v>
       </c>
       <c r="AP80" t="s" s="2">
         <v>82</v>
@@ -11830,21 +11921,21 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>547</v>
+        <v>402</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>547</v>
+        <v>402</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>82</v>
@@ -11853,19 +11944,19 @@
         <v>82</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>140</v>
+        <v>403</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>141</v>
+        <v>404</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>221</v>
+        <v>405</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>143</v>
+        <v>406</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11903,31 +11994,31 @@
         <v>82</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC81" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD81" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>222</v>
+        <v>402</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>82</v>
@@ -11936,13 +12027,13 @@
         <v>82</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>82</v>
+        <v>407</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>106</v>
+        <v>408</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>82</v>
+        <v>409</v>
       </c>
       <c r="AP81" t="s" s="2">
         <v>82</v>
@@ -11950,14 +12041,14 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>548</v>
+        <v>410</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>548</v>
+        <v>410</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>480</v>
+        <v>82</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -11970,25 +12061,25 @@
         <v>82</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J82" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>140</v>
+        <v>411</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>481</v>
+        <v>412</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>482</v>
+        <v>413</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>152</v>
+        <v>414</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>82</v>
@@ -12037,7 +12128,7 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>483</v>
+        <v>410</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12049,22 +12140,22 @@
         <v>104</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>82</v>
+        <v>415</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>82</v>
+        <v>416</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>106</v>
+        <v>417</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>82</v>
+        <v>418</v>
       </c>
       <c r="AP82" t="s" s="2">
         <v>82</v>
@@ -12072,10 +12163,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>549</v>
+        <v>419</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>549</v>
+        <v>419</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12083,7 +12174,7 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>92</v>
@@ -12098,19 +12189,19 @@
         <v>93</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>198</v>
+        <v>420</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>550</v>
+        <v>421</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>551</v>
+        <v>422</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>552</v>
+        <v>423</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>325</v>
+        <v>424</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>82</v>
@@ -12135,13 +12226,13 @@
         <v>82</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>326</v>
+        <v>82</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>327</v>
+        <v>82</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>328</v>
+        <v>82</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>82</v>
@@ -12159,16 +12250,16 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>549</v>
+        <v>419</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>104</v>
+        <v>425</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>105</v>
@@ -12177,27 +12268,27 @@
         <v>82</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>553</v>
+        <v>426</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>332</v>
+        <v>428</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>333</v>
+        <v>82</v>
       </c>
       <c r="AP83" t="s" s="2">
-        <v>82</v>
+        <v>429</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>554</v>
+        <v>430</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>554</v>
+        <v>430</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12217,22 +12308,22 @@
         <v>82</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>391</v>
+        <v>198</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>555</v>
+        <v>431</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>393</v>
+        <v>432</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>556</v>
+        <v>433</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>395</v>
+        <v>434</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>82</v>
@@ -12257,13 +12348,13 @@
         <v>82</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>82</v>
+        <v>435</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>82</v>
+        <v>436</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>82</v>
+        <v>437</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>82</v>
@@ -12281,7 +12372,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>554</v>
+        <v>430</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12290,7 +12381,7 @@
         <v>92</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>104</v>
+        <v>438</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>105</v>
@@ -12299,38 +12390,38 @@
         <v>82</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>557</v>
+        <v>82</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>398</v>
+        <v>106</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>399</v>
+        <v>439</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP84" t="s" s="2">
-        <v>400</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>558</v>
+        <v>440</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>558</v>
+        <v>440</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>82</v>
+        <v>441</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>82</v>
@@ -12345,16 +12436,16 @@
         <v>198</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>559</v>
+        <v>442</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>560</v>
+        <v>443</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>561</v>
+        <v>444</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>405</v>
+        <v>445</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>82</v>
@@ -12379,13 +12470,13 @@
         <v>82</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>406</v>
+        <v>435</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>407</v>
+        <v>446</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>408</v>
+        <v>447</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>82</v>
@@ -12403,16 +12494,16 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>558</v>
+        <v>440</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>409</v>
+        <v>104</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>105</v>
@@ -12421,31 +12512,31 @@
         <v>82</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>82</v>
+        <v>448</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>106</v>
+        <v>449</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>410</v>
+        <v>450</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP85" t="s" s="2">
-        <v>82</v>
+        <v>451</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>562</v>
+        <v>452</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>562</v>
+        <v>452</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>412</v>
+        <v>82</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -12464,19 +12555,19 @@
         <v>82</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>198</v>
+        <v>453</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>413</v>
+        <v>454</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>414</v>
+        <v>455</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>415</v>
+        <v>456</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>416</v>
+        <v>457</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>82</v>
@@ -12501,13 +12592,13 @@
         <v>82</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>406</v>
+        <v>82</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>417</v>
+        <v>82</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>418</v>
+        <v>82</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>82</v>
@@ -12525,7 +12616,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>562</v>
+        <v>452</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12543,27 +12634,27 @@
         <v>82</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>419</v>
+        <v>82</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>420</v>
+        <v>458</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>421</v>
+        <v>459</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP86" t="s" s="2">
-        <v>422</v>
+        <v>82</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>563</v>
+        <v>460</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>563</v>
+        <v>460</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12574,7 +12665,7 @@
         <v>80</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>82</v>
@@ -12586,20 +12677,18 @@
         <v>82</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>83</v>
+        <v>198</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>564</v>
+        <v>461</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>565</v>
+        <v>462</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>473</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>82</v>
       </c>
@@ -12623,13 +12712,13 @@
         <v>82</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>82</v>
+        <v>355</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>82</v>
+        <v>464</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>82</v>
+        <v>465</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>82</v>
@@ -12647,41 +12736,2943 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AO87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP87" t="s" s="2">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="P88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AO88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP88" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="O89" s="2"/>
+      <c r="P89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AO89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP89" t="s" s="2">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="O90" s="2"/>
+      <c r="P90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q90" s="2"/>
+      <c r="R90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AO90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP90" t="s" s="2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="P91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q91" s="2"/>
+      <c r="R91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AO91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP91" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
+      <c r="P92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q92" s="2"/>
+      <c r="R92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AO92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP92" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O93" s="2"/>
+      <c r="P93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q93" s="2"/>
+      <c r="R93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AO93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP93" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="P94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q94" s="2"/>
+      <c r="R94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AO94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP94" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="O95" s="2"/>
+      <c r="P95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q95" s="2"/>
+      <c r="R95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AO95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP95" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="O96" s="2"/>
+      <c r="P96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q96" s="2"/>
+      <c r="R96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AO96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP96" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="97" hidden="true">
+      <c r="A97" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="P97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q97" s="2"/>
+      <c r="R97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AO97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP97" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="98" hidden="true">
+      <c r="A98" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="O98" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="P98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q98" s="2"/>
+      <c r="R98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AO98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP98" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="99" hidden="true">
+      <c r="A99" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="P99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q99" s="2"/>
+      <c r="R99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AO99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP99" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="O100" s="2"/>
+      <c r="P100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q100" s="2"/>
+      <c r="R100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="AO100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP100" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="101" hidden="true">
+      <c r="A101" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="O101" s="2"/>
+      <c r="P101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q101" s="2"/>
+      <c r="R101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AO101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP101" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="102" hidden="true">
+      <c r="A102" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K102" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="AG87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH87" t="s" s="2">
+      <c r="L102" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="O102" s="2"/>
+      <c r="P102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q102" s="2"/>
+      <c r="R102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH102" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AI87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AO87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP87" t="s" s="2">
+      <c r="AI102" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AO102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP102" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="103" hidden="true">
+      <c r="A103" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="F103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="O103" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="P103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q103" s="2"/>
+      <c r="R103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AO103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP103" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="104" hidden="true">
+      <c r="A104" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="F104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="N104" s="2"/>
+      <c r="O104" s="2"/>
+      <c r="P104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q104" s="2"/>
+      <c r="R104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AO104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP104" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="105" hidden="true">
+      <c r="A105" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="E105" s="2"/>
+      <c r="F105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O105" s="2"/>
+      <c r="P105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q105" s="2"/>
+      <c r="R105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN105" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AO105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP105" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="106" hidden="true">
+      <c r="A106" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O106" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="P106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q106" s="2"/>
+      <c r="R106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN106" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AO106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP106" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="107" hidden="true">
+      <c r="A107" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="C107" s="2"/>
+      <c r="D107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E107" s="2"/>
+      <c r="F107" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="O107" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="P107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q107" s="2"/>
+      <c r="R107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AN107" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AO107" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AP107" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="108" hidden="true">
+      <c r="A108" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E108" s="2"/>
+      <c r="F108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="O108" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="P108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q108" s="2"/>
+      <c r="R108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="AM108" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AN108" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AO108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP108" t="s" s="2">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="109" hidden="true">
+      <c r="A109" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="C109" s="2"/>
+      <c r="D109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E109" s="2"/>
+      <c r="F109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="O109" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="P109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q109" s="2"/>
+      <c r="R109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AN109" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AO109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP109" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="110" hidden="true">
+      <c r="A110" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="E110" s="2"/>
+      <c r="F110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="O110" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="P110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q110" s="2"/>
+      <c r="R110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL110" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AM110" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AN110" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AO110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP110" t="s" s="2">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="111" hidden="true">
+      <c r="A111" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="C111" s="2"/>
+      <c r="D111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E111" s="2"/>
+      <c r="F111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="O111" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="P111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q111" s="2"/>
+      <c r="R111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM111" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AN111" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AO111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP111" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP87">
+  <autoFilter ref="A1:AP111">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12691,7 +15682,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI86">
+  <conditionalFormatting sqref="A2:AI110">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-c-intersex.xlsx
+++ b/output/StructureDefinition-c-intersex.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T22:15:03+02:00</t>
+    <t>2023-03-28T23:17:42+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-c-intersex.xlsx
+++ b/output/StructureDefinition-c-intersex.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T23:17:42+02:00</t>
+    <t>2023-03-29T13:43:15+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-c-intersex.xlsx
+++ b/output/StructureDefinition-c-intersex.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-29T13:43:15+02:00</t>
+    <t>2023-03-30T02:04:17+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-c-intersex.xlsx
+++ b/output/StructureDefinition-c-intersex.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T02:04:17+02:00</t>
+    <t>2023-03-30T13:05:19+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-c-intersex.xlsx
+++ b/output/StructureDefinition-c-intersex.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T13:05:19+02:00</t>
+    <t>2023-03-30T15:07:01+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -774,7 +774,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/CodeSystem/umls</t>
+    <t>http://www.nlm.nih.gov/research/umls/</t>
   </si>
   <si>
     <t>Coding.system</t>

--- a/output/StructureDefinition-c-intersex.xlsx
+++ b/output/StructureDefinition-c-intersex.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T15:07:01+02:00</t>
+    <t>2023-03-30T17:28:47+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-c-intersex.xlsx
+++ b/output/StructureDefinition-c-intersex.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T17:28:47+02:00</t>
+    <t>2023-03-30T20:16:43+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -774,7 +774,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://www.nlm.nih.gov/research/umls/</t>
+    <t>http://www.nlm.nih.gov/research/umls</t>
   </si>
   <si>
     <t>Coding.system</t>

--- a/output/StructureDefinition-c-intersex.xlsx
+++ b/output/StructureDefinition-c-intersex.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T20:16:43+02:00</t>
+    <t>2023-03-31T11:28:30+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-c-intersex.xlsx
+++ b/output/StructureDefinition-c-intersex.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T11:28:30+02:00</t>
+    <t>2023-03-31T15:03:50+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-c-intersex.xlsx
+++ b/output/StructureDefinition-c-intersex.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T15:03:50+02:00</t>
+    <t>2023-04-02T11:40:39+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
